--- a/data/COVID_input_parameters.xlsx
+++ b/data/COVID_input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Interface_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatapudi/Desktop/COVID/SIMULATION/GITHUB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E66A9-8956-9944-96FD-953E338BC45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC5B1A-4C1C-4A47-A94D-1CD64C52009A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17020" yWindow="4560" windowWidth="27900" windowHeight="16060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="304">
   <si>
     <t>Parameter</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Wuhan, China (But published by American CDC)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>Chongquing, China</t>
   </si>
   <si>
-    <t>Best Estimate</t>
-  </si>
-  <si>
-    <t>This value is the duration of asymptomatic infection</t>
-  </si>
-  <si>
     <t>[2]</t>
   </si>
   <si>
@@ -324,12 +315,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration of viral shedding: 9 patients in cluster in Germany, testing started on first day of symptoms. 95% of patients are not detectable by 10 days, 50% by 7 days </t>
-  </si>
-  <si>
-    <t>Duration of viral shedding:55 patients. Everyone is hospitalized, even without pneumonia</t>
-  </si>
-  <si>
     <t>Age start</t>
   </si>
   <si>
@@ -378,9 +363,6 @@
     <t>Not infectious; not symptomatic</t>
   </si>
   <si>
-    <t>New York city (US)</t>
-  </si>
-  <si>
     <t>1.       Reproduction number</t>
   </si>
   <si>
@@ -390,9 +372,6 @@
     <t>Percent of hospitalizations</t>
   </si>
   <si>
-    <t>Assume same as 'Time from onset of symptoms to hospitalization'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Related to E </t>
   </si>
   <si>
@@ -403,12 +382,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>ub</t>
   </si>
   <si>
     <t>a_sd</t>
@@ -604,12 +577,6 @@
     <t>Health Information and Quality Authority, "Evidence summary for COVID-19 viral load over course of infection," 1 April 2020. [Online]. Available: https://www.hiqa.ie/sites/default/files/2020-04/Evidence-Summary_COVID-19_duration-of-infectivity-viral-load.pdf. [Accessed 27 May 2020].</t>
   </si>
   <si>
-    <t>4.       Latent period duration (days)</t>
-  </si>
-  <si>
-    <t>5.        Infectious incubation period</t>
-  </si>
-  <si>
     <t>Infectious and not symptomatic</t>
   </si>
   <si>
@@ -657,9 +624,6 @@
     <t>[11]</t>
   </si>
   <si>
-    <t>ASSUMING SAME AS PROPORTION ASYMPTOMATIC-  NOT SURE IF CASES EVENTUALLY SHOW SYMPTOMS (best estimate from link; range are assumptions )</t>
-  </si>
-  <si>
     <t xml:space="preserve">H. Nishiura, T. Kobayashi, et. al, "Estimation of the asymptomatic ratio of novel coronavirus infections (COVID-19)," medRxiv, 2020. </t>
   </si>
   <si>
@@ -730,9 +694,6 @@
     </r>
   </si>
   <si>
-    <t>6.       incubation period  duration (days)</t>
-  </si>
-  <si>
     <t>7.       Proportion of cases that never show symptoms</t>
   </si>
   <si>
@@ -1039,27 +1000,6 @@
     <t xml:space="preserve">10.       Time from onset of symptoms to recovery </t>
   </si>
   <si>
-    <t xml:space="preserve">11.      Time from diagnosis to recovery </t>
-  </si>
-  <si>
-    <t>12.       Time from onset of symptoms to hospitalization</t>
-  </si>
-  <si>
-    <t>13.       Proportion of cases that are hospitalized</t>
-  </si>
-  <si>
-    <t>14.     Duration of hospitalization for those who recover</t>
-  </si>
-  <si>
-    <t>15.       Proportion of cases that recover</t>
-  </si>
-  <si>
-    <t>16.       Duration of hospitalization for deaths</t>
-  </si>
-  <si>
-    <t>17.      Proportion of cases that die</t>
-  </si>
-  <si>
     <t>Data from this file is used in the COVID Disease modeling presented by The Disease Modeling Lab at UMASS</t>
   </si>
   <si>
@@ -1114,30 +1054,12 @@
     <t>2. c</t>
   </si>
   <si>
-    <t>3. beta_q</t>
-  </si>
-  <si>
-    <t>4. beta_h</t>
-  </si>
-  <si>
-    <t>5. a_u</t>
-  </si>
-  <si>
-    <t>6. a_c</t>
-  </si>
-  <si>
     <t>proportion social distancing</t>
   </si>
   <si>
     <t>number of contacts per person</t>
   </si>
   <si>
-    <t>transmission rate under quarantine</t>
-  </si>
-  <si>
-    <t>transmission rate under hospitalization</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -1153,15 +1075,9 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>This action is decided by the RL model</t>
-  </si>
-  <si>
     <t>Varies based on beta value pre and post social distancing</t>
   </si>
   <si>
-    <t>Assumed 0/not modeled in initial stage</t>
-  </si>
-  <si>
     <t>Also refers to excel sheet "symp_hospitalization"</t>
   </si>
   <si>
@@ -1177,18 +1093,9 @@
     <t>Days_HR</t>
   </si>
   <si>
-    <t>China - Infectious period</t>
-  </si>
-  <si>
-    <t>To the right, combination of estimation from data in text and Table</t>
-  </si>
-  <si>
     <t>Values presented in excel sheet "percent_dead_recover_days"</t>
   </si>
   <si>
-    <t>For age related proportion, see above.</t>
-  </si>
-  <si>
     <t>sd_date</t>
   </si>
   <si>
@@ -1198,9 +1105,6 @@
     <t>Date on which social distancing was implemented for each stated and suggested social distancing ending date</t>
   </si>
   <si>
-    <t>18. Date of social distancing implementation and reopening</t>
-  </si>
-  <si>
     <t>See Sheet "sd_date"</t>
   </si>
   <si>
@@ -1211,18 +1115,158 @@
   </si>
   <si>
     <t>Second_attack</t>
+  </si>
+  <si>
+    <t>Estimated, see methodology</t>
+  </si>
+  <si>
+    <t>This is an input decision</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Heinzerling et. al., "Transmission of COVID-19 to Health Care Personnel During Exposures to a Hospitalized Patient — Solano County, California, February 2020," </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MMWR Morb Mortal Wkly Rep, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vol. 69, p. 472–476, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>Related  to I</t>
+  </si>
+  <si>
+    <t>3. transmission rate under quarantine</t>
+  </si>
+  <si>
+    <t>4. tranmission rate under hospitalization</t>
+  </si>
+  <si>
+    <t>beta when under quanrantine (assumed)</t>
+  </si>
+  <si>
+    <t>beta fo hospital personnel in a healtcare setting</t>
+  </si>
+  <si>
+    <t>5.       Latent period duration (days)</t>
+  </si>
+  <si>
+    <t>6.        Infectious incubation period</t>
+  </si>
+  <si>
+    <t>7.       incubation period  duration (days)</t>
+  </si>
+  <si>
+    <t>USA (CA)</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>USA (NY)</t>
+  </si>
+  <si>
+    <t>11. Base testing rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.      Time from diagnosis to recovery </t>
+  </si>
+  <si>
+    <t>13.       Time from onset of symptoms to hospitalization</t>
+  </si>
+  <si>
+    <t>14.       Proportion of cases that are hospitalized</t>
+  </si>
+  <si>
+    <t>15.     Duration of hospitalization for those who recover</t>
+  </si>
+  <si>
+    <t>16.       Proportion of cases that recover</t>
+  </si>
+  <si>
+    <t>17.       Duration of hospitalization for deaths</t>
+  </si>
+  <si>
+    <t>18.      Proportion of cases that die</t>
+  </si>
+  <si>
+    <t>19. Date of social distancing implementation and reopening</t>
+  </si>
+  <si>
+    <t>3. a_u</t>
+  </si>
+  <si>
+    <t>4. a_c</t>
+  </si>
+  <si>
+    <t>base testing rate (under symptom-based testing, we assume that only persons who show moderate to severe symptoms get diagnosed, and those who show mild symptoms do not)</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R. Li et. al., "Substantial Undocumented Infection Facilitates the Rapid Dissemination of Novel Coronavirus (SARS-CoV-2)," </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Science, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vol. 368, no. 6490, pp. 489-493, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>[8], [14], [26]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
-  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1294,13 +1338,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1406,9 +1443,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1419,20 +1456,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,13 +1478,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,13 +1493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,19 +1508,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,11 +1535,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1510,13 +1544,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1534,47 +1568,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1891,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4CBC7-CE33-6342-AFB5-46B0BE50F271}">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1903,178 +1941,151 @@
     <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>267</v>
+        <v>242</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>268</v>
+        <v>243</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>270</v>
+        <v>244</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>250</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" t="s">
-        <v>285</v>
+        <v>254</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="E16" t="s">
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
         <v>275</v>
       </c>
-      <c r="D17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" t="s">
-        <v>285</v>
-      </c>
-      <c r="F17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" t="s">
-        <v>291</v>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2084,36 +2095,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:P161"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="18" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="18" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="18" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="45.83203125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="18" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="18"/>
+    <col min="10" max="10" width="23.5" style="18" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>17</v>
@@ -2139,13 +2149,10 @@
         <v>2</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
@@ -2156,21 +2163,20 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>4</v>
@@ -2188,15 +2194,12 @@
       <c r="H3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="24"/>
-    </row>
-    <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="E4" s="19">
         <v>2.2799999999999998</v>
@@ -2211,14 +2214,11 @@
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="24"/>
-    </row>
-    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="E5" s="18">
         <v>2.68</v>
@@ -2233,14 +2233,11 @@
         <v>25</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23"/>
       <c r="E6" s="18">
         <v>6.49</v>
@@ -2255,14 +2252,11 @@
         <v>26</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="24"/>
-    </row>
-    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="E7" s="18">
         <v>2.9</v>
@@ -2277,14 +2271,11 @@
         <v>27</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="E8" s="18">
         <v>2.92</v>
@@ -2299,14 +2290,11 @@
         <v>27</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="E9" s="18">
         <v>3.11</v>
@@ -2321,14 +2309,11 @@
         <v>28</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="24"/>
-    </row>
-    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="E10" s="18">
         <v>2.5499999999999998</v>
@@ -2343,14 +2328,11 @@
         <v>25</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="E11" s="18">
         <v>1.95</v>
@@ -2365,14 +2347,11 @@
         <v>28</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="E12" s="18">
         <v>4.08</v>
@@ -2381,14 +2360,11 @@
         <v>28</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="24"/>
-    </row>
-    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="E13" s="18">
         <v>2.2400000000000002</v>
@@ -2403,14 +2379,11 @@
         <v>28</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="E14" s="18">
         <v>3.58</v>
@@ -2425,14 +2398,11 @@
         <v>28</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="E15" s="18">
         <v>2.5</v>
@@ -2447,14 +2417,11 @@
         <v>25</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="E16" s="18">
         <v>2.2000000000000002</v>
@@ -2463,14 +2430,11 @@
         <v>27</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="24"/>
-    </row>
-    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="E17" s="18">
         <v>6.47</v>
@@ -2485,14 +2449,11 @@
         <v>28</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="E18" s="18">
         <v>2.2000000000000002</v>
@@ -2507,14 +2468,11 @@
         <v>28</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="E19" s="18">
         <v>3.28</v>
@@ -2523,14 +2481,11 @@
         <v>28</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="24"/>
-    </row>
-    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="E20" s="18">
         <v>5.7</v>
@@ -2545,14 +2500,11 @@
         <v>29</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="24"/>
-    </row>
-    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="E21" s="20">
         <v>2.2000000000000002</v>
@@ -2561,14 +2513,11 @@
         <v>28</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="24"/>
-    </row>
-    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="E22" s="20">
         <v>6.3</v>
@@ -2577,14 +2526,11 @@
         <v>28</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="24"/>
-    </row>
-    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="E23" s="20">
         <v>4.9000000000000004</v>
@@ -2593,14 +2539,11 @@
         <v>28</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="24"/>
-    </row>
-    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="E24" s="20">
         <v>1.94</v>
@@ -2609,22 +2552,18 @@
         <v>28</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="24"/>
-    </row>
-    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="23"/>
       <c r="E25" s="20"/>
-      <c r="J25" s="24"/>
-      <c r="Q25" s="24"/>
-    </row>
-    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>5</v>
@@ -2643,12 +2582,11 @@
         <v>28</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="24"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="23"/>
       <c r="E27" s="18">
         <v>0.52</v>
@@ -2663,12 +2601,11 @@
         <v>28</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="24"/>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="E28" s="18">
         <v>0.35</v>
@@ -2683,2491 +2620,2407 @@
         <v>28</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="24"/>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
       <c r="E29" s="21">
         <v>0.315</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="24"/>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="23"/>
-      <c r="J30" s="24"/>
-      <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="J31" s="24"/>
-      <c r="Q31" s="24"/>
-    </row>
-    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="18">
+        <v>122</v>
+      </c>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="25"/>
+      <c r="E30" s="21"/>
+      <c r="I30" s="39"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="25"/>
+      <c r="E32" s="21"/>
+      <c r="I32" s="39"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="23"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="18">
         <v>2.52</v>
       </c>
-      <c r="F32" s="18">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
         <v>5</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H36" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="Q33" s="24"/>
-    </row>
-    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="J34" s="24"/>
-      <c r="Q34" s="24"/>
-    </row>
-    <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="22">
+      <c r="I36" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="23"/>
+      <c r="P37" s="24"/>
+    </row>
+    <row r="38" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="22">
         <v>3.5</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q35" s="24"/>
-    </row>
-    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="18">
+      <c r="I39" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="23"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="18">
         <v>2.5</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="24"/>
-      <c r="Q36" s="24"/>
-    </row>
-    <row r="37" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="J37" s="24"/>
-      <c r="Q37" s="24"/>
-    </row>
-    <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="18">
+      <c r="I40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="23"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="18">
         <v>5.4</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F42" s="18">
         <v>3.8</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G42" s="18">
         <v>9</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="24"/>
-      <c r="Q38" s="24"/>
-    </row>
-    <row r="39" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="25"/>
-      <c r="E39" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="24"/>
-    </row>
-    <row r="40" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="25"/>
-      <c r="E40" s="18">
-        <v>4</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="24"/>
-    </row>
-    <row r="41" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="25"/>
-      <c r="E41" s="18">
-        <v>5.2</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="24"/>
-    </row>
-    <row r="42" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="25"/>
-      <c r="E42" s="18">
-        <v>5</v>
+      <c r="H42" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="24"/>
-    </row>
-    <row r="43" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="25"/>
-      <c r="J43" s="24"/>
-      <c r="Q43" s="24"/>
-    </row>
-    <row r="44" spans="1:17" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="E43" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="25"/>
+      <c r="E44" s="18">
+        <v>4</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="25"/>
+      <c r="E45" s="18">
+        <v>5.2</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="25"/>
+      <c r="E46" s="18">
+        <v>5</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="25"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="F44" s="18">
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
         <v>0.2</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G48" s="18">
         <v>0.4</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="H48" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q44" s="24"/>
-    </row>
-    <row r="45" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="F45" s="18">
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="23"/>
+      <c r="F49" s="18">
         <v>0.2</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G49" s="18">
         <v>0.8</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" s="24"/>
-      <c r="Q45" s="24"/>
-    </row>
-    <row r="46" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="E46" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="24"/>
-    </row>
-    <row r="47" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="23"/>
-      <c r="E47" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="24"/>
-    </row>
-    <row r="48" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="23"/>
-      <c r="E48" s="22">
-        <v>0.34</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="24"/>
-    </row>
-    <row r="49" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="23"/>
-      <c r="E49" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="24"/>
-    </row>
-    <row r="50" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="23"/>
       <c r="E50" s="22">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="24"/>
-    </row>
-    <row r="51" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="P50" s="24"/>
+    </row>
+    <row r="51" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23"/>
       <c r="E51" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" s="24"/>
+    </row>
+    <row r="52" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="23"/>
+      <c r="E52" s="22">
+        <v>0.34</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="P52" s="24"/>
+    </row>
+    <row r="53" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="23"/>
+      <c r="E53" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P53" s="24"/>
+    </row>
+    <row r="54" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="23"/>
+      <c r="E54" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P54" s="24"/>
+    </row>
+    <row r="55" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="23"/>
+      <c r="E55" s="22">
         <v>0.3</v>
       </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27" t="s">
+      <c r="H55" s="27"/>
+      <c r="I55" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q51" s="24"/>
-    </row>
-    <row r="52" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="23"/>
-      <c r="J52" s="24"/>
-      <c r="Q52" s="24"/>
-    </row>
-    <row r="53" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="18">
+      <c r="P55" s="24"/>
+    </row>
+    <row r="56" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="23"/>
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="18">
         <v>6</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F57" s="18">
         <v>3.5</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G57" s="18">
         <v>9.5</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K53" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q53" s="24"/>
-    </row>
-    <row r="54" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="23"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="58"/>
-      <c r="Q54" s="24"/>
-    </row>
-    <row r="55" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="J55" s="24"/>
-      <c r="Q55" s="24"/>
-    </row>
-    <row r="56" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="25"/>
-      <c r="J56" s="24"/>
-      <c r="Q56" s="24"/>
-    </row>
-    <row r="57" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E57" s="55">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F57" s="27"/>
       <c r="H57" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="J57" s="56"/>
-      <c r="Q57" s="24"/>
-    </row>
-    <row r="58" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="24"/>
+    </row>
+    <row r="58" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="23"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="56"/>
-      <c r="Q58" s="24"/>
-    </row>
-    <row r="59" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C59" s="18" t="s">
+      <c r="J58" s="54"/>
+      <c r="P58" s="24"/>
+    </row>
+    <row r="59" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P59" s="24"/>
+    </row>
+    <row r="60" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="H60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="23"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E62" s="18">
         <v>7</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F62" s="18">
         <v>3.5</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G62" s="18">
         <v>10</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I62" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="24"/>
-      <c r="Q59" s="24"/>
-    </row>
-    <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="23"/>
-      <c r="E60" s="27">
+      <c r="P62" s="24"/>
+    </row>
+    <row r="63" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23"/>
+      <c r="E63" s="27">
         <v>7</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="J60" s="24"/>
-      <c r="Q60" s="24"/>
-    </row>
-    <row r="61" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="23"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="I61" s="18" t="s">
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="1:16" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="23"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="I64" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K61" s="27"/>
-      <c r="Q61" s="24"/>
-    </row>
-    <row r="62" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="23"/>
-      <c r="E62" s="27">
+      <c r="J64" s="27"/>
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="23"/>
+      <c r="E65" s="27">
         <v>10</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="J62" s="24"/>
-      <c r="Q62" s="24"/>
-    </row>
-    <row r="63" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="I63" s="18" t="s">
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="P65" s="24"/>
+    </row>
+    <row r="66" spans="2:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="23"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="I66" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="K63" s="27"/>
-      <c r="Q63" s="24"/>
-    </row>
-    <row r="64" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="23"/>
-      <c r="E64" s="18">
-        <v>20.3</v>
-      </c>
-      <c r="F64" s="18">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G64" s="18">
-        <v>21.3</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J64" s="24"/>
-      <c r="Q64" s="24"/>
-    </row>
-    <row r="65" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="23"/>
-      <c r="E65" s="18">
-        <v>21.2</v>
-      </c>
-      <c r="F65" s="18">
-        <v>20.2</v>
-      </c>
-      <c r="G65" s="18">
-        <v>22.3</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J65" s="24"/>
-      <c r="Q65" s="24"/>
-    </row>
-    <row r="66" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="23"/>
-      <c r="E66" s="18">
-        <v>17.5</v>
-      </c>
-      <c r="F66" s="18">
-        <v>15.3</v>
-      </c>
-      <c r="G66" s="18">
-        <v>20</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J66" s="24"/>
-      <c r="Q66" s="24"/>
-    </row>
-    <row r="67" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="27"/>
+      <c r="P66" s="24"/>
+    </row>
+    <row r="67" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="23"/>
       <c r="E67" s="18">
-        <v>19.100000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="F67" s="18">
-        <v>15.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G67" s="18">
-        <v>22.9</v>
+        <v>21.3</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J67" s="24"/>
-      <c r="Q67" s="24"/>
-    </row>
-    <row r="68" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P67" s="24"/>
+    </row>
+    <row r="68" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="23"/>
       <c r="E68" s="18">
-        <v>19.2</v>
+        <v>21.2</v>
       </c>
       <c r="F68" s="18">
-        <v>17.5</v>
+        <v>20.2</v>
       </c>
       <c r="G68" s="18">
-        <v>21</v>
+        <v>22.3</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J68" s="24"/>
-      <c r="Q68" s="24"/>
-    </row>
-    <row r="69" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P68" s="24"/>
+    </row>
+    <row r="69" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="23"/>
       <c r="E69" s="18">
-        <v>19.2</v>
+        <v>17.5</v>
       </c>
       <c r="F69" s="18">
-        <v>18</v>
+        <v>15.3</v>
       </c>
       <c r="G69" s="18">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J69" s="24"/>
-      <c r="Q69" s="24"/>
-    </row>
-    <row r="70" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P69" s="24"/>
+    </row>
+    <row r="70" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="23"/>
       <c r="E70" s="18">
-        <v>21.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F70" s="18">
-        <v>20</v>
+        <v>15.8</v>
       </c>
       <c r="G70" s="18">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J70" s="24"/>
-      <c r="Q70" s="24"/>
-    </row>
-    <row r="71" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P70" s="24"/>
+    </row>
+    <row r="71" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23"/>
       <c r="E71" s="18">
-        <v>22.4</v>
+        <v>19.2</v>
       </c>
       <c r="F71" s="18">
-        <v>20.8</v>
+        <v>17.5</v>
       </c>
       <c r="G71" s="18">
-        <v>24.1</v>
+        <v>21</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J71" s="24"/>
-      <c r="Q71" s="24"/>
-    </row>
-    <row r="72" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P71" s="24"/>
+    </row>
+    <row r="72" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="23"/>
       <c r="E72" s="18">
-        <v>22.9</v>
+        <v>19.2</v>
       </c>
       <c r="F72" s="18">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="G72" s="18">
-        <v>24.7</v>
+        <v>20.5</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J72" s="24"/>
-      <c r="Q72" s="24"/>
-    </row>
-    <row r="73" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P72" s="24"/>
+    </row>
+    <row r="73" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="23"/>
       <c r="E73" s="18">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="F73" s="18">
-        <v>19.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="G73" s="18">
-        <v>26.3</v>
+        <v>23.4</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J73" s="24"/>
-      <c r="Q73" s="24"/>
-    </row>
-    <row r="74" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P73" s="24"/>
+    </row>
+    <row r="74" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23"/>
       <c r="E74" s="18">
-        <v>20.100000000000001</v>
+        <v>22.4</v>
       </c>
       <c r="F74" s="18">
-        <v>19</v>
+        <v>20.8</v>
       </c>
       <c r="G74" s="18">
-        <v>21.3</v>
+        <v>24.1</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J74" s="24"/>
-      <c r="Q74" s="24"/>
-    </row>
-    <row r="75" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P74" s="24"/>
+    </row>
+    <row r="75" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23"/>
       <c r="E75" s="18">
-        <v>20.3</v>
+        <v>22.9</v>
       </c>
       <c r="F75" s="18">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="G75" s="18">
-        <v>21.1</v>
+        <v>24.7</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J75" s="24"/>
-      <c r="Q75" s="24"/>
-    </row>
-    <row r="76" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P75" s="24"/>
+    </row>
+    <row r="76" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="23"/>
       <c r="E76" s="18">
-        <v>28.3</v>
+        <v>22.5</v>
       </c>
       <c r="F76" s="18">
-        <v>25.3</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G76" s="18">
-        <v>31.6</v>
+        <v>26.3</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J76" s="24"/>
-      <c r="Q76" s="24"/>
-    </row>
-    <row r="77" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P76" s="24"/>
+    </row>
+    <row r="77" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="23"/>
       <c r="E77" s="18">
-        <v>19.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F77" s="18">
-        <v>17.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="G77" s="18">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J77" s="24"/>
-      <c r="Q77" s="24"/>
-    </row>
-    <row r="78" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P77" s="24"/>
+    </row>
+    <row r="78" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="23"/>
       <c r="E78" s="18">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="F78" s="18">
-        <v>20.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="G78" s="18">
-        <v>22</v>
+        <v>21.1</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J78" s="24"/>
-      <c r="Q78" s="24"/>
-    </row>
-    <row r="79" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P78" s="24"/>
+    </row>
+    <row r="79" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="23"/>
       <c r="E79" s="18">
-        <v>21.2</v>
+        <v>28.3</v>
       </c>
       <c r="F79" s="18">
-        <v>18</v>
+        <v>25.3</v>
       </c>
       <c r="G79" s="18">
-        <v>24.9</v>
+        <v>31.6</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J79" s="24"/>
-      <c r="Q79" s="24"/>
-    </row>
-    <row r="80" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="P79" s="24"/>
+    </row>
+    <row r="80" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="23"/>
-      <c r="J80" s="24"/>
-      <c r="Q80" s="24"/>
-    </row>
-    <row r="81" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="25" t="s">
+      <c r="E80" s="18">
+        <v>19.3</v>
+      </c>
+      <c r="F80" s="18">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G80" s="18">
+        <v>20.9</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P80" s="24"/>
+    </row>
+    <row r="81" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="23"/>
+      <c r="E81" s="18">
+        <v>21.2</v>
+      </c>
+      <c r="F81" s="18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G81" s="18">
+        <v>22</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P81" s="24"/>
+    </row>
+    <row r="82" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="23"/>
+      <c r="E82" s="18">
+        <v>21.2</v>
+      </c>
+      <c r="F82" s="18">
+        <v>18</v>
+      </c>
+      <c r="G82" s="18">
+        <v>24.9</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P82" s="24"/>
+    </row>
+    <row r="83" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="23"/>
+      <c r="P83" s="24"/>
+    </row>
+    <row r="84" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="P84" s="24"/>
+    </row>
+    <row r="85" spans="1:16" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="P85" s="24"/>
+    </row>
+    <row r="86" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="23"/>
+      <c r="P86" s="24"/>
+    </row>
+    <row r="87" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="J81" s="24"/>
-      <c r="Q81" s="24"/>
-    </row>
-    <row r="82" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" s="18" t="s">
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="P87" s="24"/>
+    </row>
+    <row r="88" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E88" s="18">
         <v>3.5</v>
       </c>
-      <c r="F82" s="18">
-        <v>0</v>
-      </c>
-      <c r="G82" s="18">
+      <c r="F88" s="18">
+        <v>0</v>
+      </c>
+      <c r="G88" s="18">
         <v>14</v>
       </c>
-      <c r="I82" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J82" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q82" s="24"/>
-    </row>
-    <row r="83" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="23"/>
-      <c r="J83" s="24"/>
-      <c r="Q83" s="24"/>
-    </row>
-    <row r="84" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" s="18" t="s">
+      <c r="I88" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P88" s="24"/>
+    </row>
+    <row r="89" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="23"/>
+      <c r="P89" s="24"/>
+    </row>
+    <row r="90" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E90" s="18">
         <v>3.5</v>
       </c>
-      <c r="F84" s="18">
-        <v>0</v>
-      </c>
-      <c r="G84" s="18">
+      <c r="F90" s="18">
+        <v>0</v>
+      </c>
+      <c r="G90" s="18">
         <v>14</v>
       </c>
-      <c r="I84" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J84" s="24"/>
-      <c r="Q84" s="24"/>
-    </row>
-    <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="23"/>
-      <c r="J85" s="24"/>
-      <c r="Q85" s="24"/>
-    </row>
-    <row r="86" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="J86" s="24"/>
-      <c r="Q86" s="24"/>
-    </row>
-    <row r="87" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="H87" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="J87" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="K87" s="18" t="s">
+      <c r="I90" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P90" s="24"/>
+    </row>
+    <row r="91" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="23"/>
+      <c r="P91" s="24"/>
+    </row>
+    <row r="92" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P92" s="24"/>
+    </row>
+    <row r="93" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="H93" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M93" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O93" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L87" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N87" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="O87" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P87" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q87" s="24"/>
-    </row>
-    <row r="88" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="38"/>
-      <c r="D88" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E88" s="28">
-        <f t="shared" ref="E88:E94" si="0">M88/K88</f>
+      <c r="P93" s="24"/>
+    </row>
+    <row r="94" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="38"/>
+      <c r="D94" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="28">
+        <f t="shared" ref="E94:E100" si="0">L94/J94</f>
         <v>4.1300813008130079E-2</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J88" s="26"/>
-      <c r="K88" s="37">
+      <c r="F94" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" s="37">
         <v>123</v>
       </c>
-      <c r="L88" s="41">
+      <c r="K94" s="40">
         <v>0.01</v>
       </c>
-      <c r="M88" s="42">
-        <f t="shared" ref="M88:M94" si="1">L88*$L$95</f>
+      <c r="L94" s="41">
+        <f t="shared" ref="L94:L100" si="1">K94*$K$101</f>
         <v>5.08</v>
       </c>
-      <c r="N88" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="O88" s="18">
-        <v>0</v>
-      </c>
-      <c r="P88" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="26"/>
-    </row>
-    <row r="89" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="38"/>
-      <c r="D89" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E89" s="28">
+      <c r="M94" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N94" s="18">
+        <v>0</v>
+      </c>
+      <c r="O94" s="37">
+        <v>0</v>
+      </c>
+      <c r="P94" s="26"/>
+    </row>
+    <row r="95" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="38"/>
+      <c r="D95" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="28">
         <f t="shared" si="0"/>
         <v>0.14411347517730497</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J89" s="26"/>
-      <c r="K89" s="37">
+      <c r="F95" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" s="37">
         <v>705</v>
       </c>
-      <c r="L89" s="41">
+      <c r="K95" s="40">
         <v>0.2</v>
       </c>
-      <c r="M89" s="42">
+      <c r="L95" s="41">
         <f t="shared" si="1"/>
         <v>101.60000000000001</v>
       </c>
-      <c r="N89" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O89" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P89" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q89" s="26"/>
-    </row>
-    <row r="90" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="38"/>
-      <c r="D90" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E90" s="28">
+      <c r="M95" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O95" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P95" s="26"/>
+    </row>
+    <row r="96" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="38"/>
+      <c r="D96" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="28">
         <f t="shared" si="0"/>
         <v>0.21314685314685314</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J90" s="26"/>
-      <c r="K90" s="37">
+      <c r="F96" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" s="37">
         <v>429</v>
       </c>
-      <c r="L90" s="41">
+      <c r="K96" s="40">
         <v>0.18</v>
       </c>
-      <c r="M90" s="42">
+      <c r="L96" s="41">
         <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
-      <c r="N90" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O90" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P90" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q90" s="26"/>
-    </row>
-    <row r="91" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="38"/>
-      <c r="D91" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E91" s="28">
+      <c r="M96" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N96" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O96" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" s="26"/>
+    </row>
+    <row r="97" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="38"/>
+      <c r="D97" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="28">
         <f t="shared" si="0"/>
         <v>0.20130536130536131</v>
       </c>
-      <c r="F91" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J91" s="26"/>
-      <c r="K91" s="37">
+      <c r="F97" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J97" s="37">
         <v>429</v>
       </c>
-      <c r="L91" s="41">
+      <c r="K97" s="40">
         <v>0.17</v>
       </c>
-      <c r="M91" s="42">
+      <c r="L97" s="41">
         <f t="shared" si="1"/>
         <v>86.36</v>
       </c>
-      <c r="N91" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O91" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P91" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q91" s="26"/>
-    </row>
-    <row r="92" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="38"/>
-      <c r="D92" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E92" s="28">
+      <c r="M97" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O97" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" s="26"/>
+    </row>
+    <row r="98" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="38"/>
+      <c r="D98" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="28">
         <f t="shared" si="0"/>
         <v>0.22356968215158923</v>
       </c>
-      <c r="F92" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J92" s="26"/>
-      <c r="K92" s="37">
+      <c r="F98" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J98" s="37">
         <v>409</v>
       </c>
-      <c r="L92" s="41">
+      <c r="K98" s="40">
         <f>36%/2</f>
         <v>0.18</v>
       </c>
-      <c r="M92" s="42">
+      <c r="L98" s="41">
         <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
-      <c r="N92" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O92" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P92" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q92" s="26"/>
-    </row>
-    <row r="93" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="38"/>
-      <c r="D93" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E93" s="28">
+      <c r="M98" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O98" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" s="26"/>
+    </row>
+    <row r="99" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="38"/>
+      <c r="D99" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="28">
         <f t="shared" si="0"/>
         <v>0.43542857142857144</v>
       </c>
-      <c r="F93" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J93" s="26"/>
-      <c r="K93" s="37">
+      <c r="F99" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J99" s="37">
         <v>210</v>
       </c>
-      <c r="L93" s="41">
+      <c r="K99" s="40">
         <f>36%/2</f>
         <v>0.18</v>
       </c>
-      <c r="M93" s="42">
+      <c r="L99" s="41">
         <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
-      <c r="N93" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O93" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P93" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q93" s="26"/>
-    </row>
-    <row r="94" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="38"/>
-      <c r="D94" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="28">
+      <c r="M99" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N99" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O99" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P99" s="26"/>
+    </row>
+    <row r="100" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="38"/>
+      <c r="D100" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="28">
         <f t="shared" si="0"/>
         <v>0.3175</v>
       </c>
-      <c r="F94" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J94" s="26"/>
-      <c r="K94" s="37">
+      <c r="F100" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J100" s="37">
         <v>144</v>
       </c>
-      <c r="L94" s="41">
+      <c r="K100" s="40">
         <v>0.09</v>
       </c>
-      <c r="M94" s="42">
+      <c r="L100" s="41">
         <f t="shared" si="1"/>
         <v>45.72</v>
       </c>
-      <c r="N94" s="18" t="s">
+      <c r="M100" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N100" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O100" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P100" s="26"/>
+    </row>
+    <row r="101" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="38"/>
+      <c r="D101" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="F101" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="O94" s="18" t="s">
+      <c r="J101" s="55">
+        <v>2449</v>
+      </c>
+      <c r="K101" s="43">
+        <v>508</v>
+      </c>
+      <c r="L101" s="41"/>
+      <c r="M101" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N101" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="P94" s="37" t="s">
+      <c r="O101" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="Q94" s="26"/>
-    </row>
-    <row r="95" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="38"/>
-      <c r="D95" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E95" s="28">
-        <v>0.12</v>
-      </c>
-      <c r="F95" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J95" s="26"/>
-      <c r="K95" s="59">
-        <v>2449</v>
-      </c>
-      <c r="L95" s="44">
-        <v>508</v>
-      </c>
-      <c r="M95" s="42"/>
-      <c r="N95" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O95" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P95" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="26"/>
-    </row>
-    <row r="96" spans="1:17" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="38"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="48"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="26"/>
-    </row>
-    <row r="97" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="25" t="s">
+      <c r="P101" s="26"/>
+    </row>
+    <row r="102" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="38"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="47"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="26"/>
+    </row>
+    <row r="103" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="24"/>
-      <c r="Q97" s="24"/>
-    </row>
-    <row r="98" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="P103" s="24"/>
+    </row>
+    <row r="104" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C98" s="18" t="s">
+      <c r="C104" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I98" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J98" s="24"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="N98" s="62"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q98" s="63"/>
-    </row>
-    <row r="99" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="18" t="s">
+      <c r="H104" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K104" s="17"/>
+      <c r="L104" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="M104" s="62"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="P104" s="63"/>
+    </row>
+    <row r="105" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="J105" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M105" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="18" t="s">
+      <c r="N105" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O105" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P105" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="L99" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M99" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N99" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O99" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P99" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q99" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="23"/>
-      <c r="C100" s="18">
-        <v>0</v>
-      </c>
-      <c r="D100" s="18">
-        <v>9</v>
-      </c>
-      <c r="E100" s="18">
-        <v>2</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="18">
-        <v>0</v>
-      </c>
-      <c r="L100" s="18">
-        <v>9</v>
-      </c>
-      <c r="M100" s="18">
-        <v>0</v>
-      </c>
-      <c r="N100" s="18">
-        <v>0</v>
-      </c>
-      <c r="O100" s="18">
-        <v>2</v>
-      </c>
-      <c r="P100" s="18">
-        <v>13</v>
-      </c>
-      <c r="Q100" s="24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="23"/>
-      <c r="C101" s="18">
-        <v>10</v>
-      </c>
-      <c r="D101" s="18">
-        <v>19</v>
-      </c>
-      <c r="E101" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="18">
-        <v>10</v>
-      </c>
-      <c r="L101" s="18">
-        <v>19</v>
-      </c>
-      <c r="M101" s="18">
-        <v>0</v>
-      </c>
-      <c r="N101" s="18">
-        <v>0</v>
-      </c>
-      <c r="O101" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="P101" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="23"/>
-      <c r="C102" s="18">
-        <v>20</v>
-      </c>
-      <c r="D102" s="18">
-        <v>29</v>
-      </c>
-      <c r="E102" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="F102" s="1"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="18">
-        <v>20</v>
-      </c>
-      <c r="L102" s="18">
-        <v>29</v>
-      </c>
-      <c r="M102" s="18">
-        <v>3</v>
-      </c>
-      <c r="N102" s="18">
-        <v>1</v>
-      </c>
-      <c r="O102" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="P102" s="18">
-        <v>42</v>
-      </c>
-      <c r="Q102" s="24">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="23"/>
-      <c r="C103" s="18">
-        <v>30</v>
-      </c>
-      <c r="D103" s="18">
-        <v>39</v>
-      </c>
-      <c r="E103" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="18">
-        <v>30</v>
-      </c>
-      <c r="L103" s="18">
-        <v>39</v>
-      </c>
-      <c r="M103" s="18">
-        <v>6</v>
-      </c>
-      <c r="N103" s="18">
-        <v>2</v>
-      </c>
-      <c r="O103" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="P103" s="18">
-        <v>130</v>
-      </c>
-      <c r="Q103" s="24">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="23"/>
-      <c r="C104" s="18">
-        <v>40</v>
-      </c>
-      <c r="D104" s="18">
-        <v>49</v>
-      </c>
-      <c r="E104" s="18">
-        <v>3.9</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="18">
-        <v>40</v>
-      </c>
-      <c r="L104" s="18">
-        <v>49</v>
-      </c>
-      <c r="M104" s="18">
-        <v>19</v>
-      </c>
-      <c r="N104" s="18">
-        <v>3</v>
-      </c>
-      <c r="O104" s="18">
-        <v>3.9</v>
-      </c>
-      <c r="P104" s="18">
-        <v>233</v>
-      </c>
-      <c r="Q104" s="24">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="23"/>
-      <c r="C105" s="18">
-        <v>50</v>
-      </c>
-      <c r="D105" s="18">
-        <v>59</v>
-      </c>
-      <c r="E105" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="18">
-        <v>50</v>
-      </c>
-      <c r="L105" s="18">
-        <v>59</v>
-      </c>
-      <c r="M105" s="18">
-        <v>40</v>
-      </c>
-      <c r="N105" s="18">
-        <v>13</v>
-      </c>
-      <c r="O105" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="P105" s="18">
-        <v>327</v>
-      </c>
-      <c r="Q105" s="24">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="23"/>
       <c r="C106" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D106" s="18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E106" s="18">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="J106" s="24"/>
+      <c r="J106" s="18">
+        <v>0</v>
+      </c>
       <c r="K106" s="18">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="L106" s="18">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="M106" s="18">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="N106" s="18">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O106" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="P106" s="18">
-        <v>300</v>
-      </c>
-      <c r="Q106" s="24">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="P106" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="23"/>
       <c r="C107" s="18">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D107" s="18">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E107" s="18">
-        <v>4.5999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="J107" s="24"/>
+      <c r="J107" s="18">
+        <v>10</v>
+      </c>
       <c r="K107" s="18">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="L107" s="18">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M107" s="18">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="N107" s="18">
-        <v>54</v>
+        <v>1.8</v>
       </c>
       <c r="O107" s="18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P107" s="18">
-        <v>254</v>
-      </c>
-      <c r="Q107" s="24">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P107" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="23"/>
       <c r="C108" s="18">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D108" s="18">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E108" s="18">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="F108" s="1"/>
-      <c r="J108" s="24"/>
+      <c r="J108" s="18">
+        <v>20</v>
+      </c>
       <c r="K108" s="18">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="L108" s="18">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="M108" s="18">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N108" s="18">
-        <v>76</v>
+        <v>2.5</v>
       </c>
       <c r="O108" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P108" s="18">
-        <v>155</v>
-      </c>
-      <c r="Q108" s="24">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="P108" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="23"/>
       <c r="C109" s="18">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D109" s="18">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E109" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="J109" s="24"/>
+        <v>3.7</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="J109" s="18">
+        <v>30</v>
+      </c>
       <c r="K109" s="18">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="L109" s="18">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M109" s="18">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="N109" s="18">
-        <v>39</v>
+        <v>3.7</v>
       </c>
       <c r="O109" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="P109" s="18">
-        <v>44</v>
-      </c>
-      <c r="Q109" s="24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="P109" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="23"/>
-      <c r="C110" s="18" t="s">
-        <v>109</v>
+      <c r="C110" s="18">
+        <v>40</v>
+      </c>
+      <c r="D110" s="18">
+        <v>49</v>
       </c>
       <c r="E110" s="18">
         <v>3.9</v>
       </c>
-      <c r="F110" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="G110" s="18">
-        <v>6.7</v>
-      </c>
-      <c r="J110" s="24"/>
-      <c r="Q110" s="24"/>
-    </row>
-    <row r="111" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="1"/>
+      <c r="J110" s="18">
+        <v>40</v>
+      </c>
+      <c r="K110" s="18">
+        <v>49</v>
+      </c>
+      <c r="L110" s="18">
+        <v>19</v>
+      </c>
+      <c r="M110" s="18">
+        <v>3</v>
+      </c>
+      <c r="N110" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="O110" s="18">
+        <v>233</v>
+      </c>
+      <c r="P110" s="24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="23"/>
-      <c r="J111" s="24"/>
-      <c r="Q111" s="24"/>
-    </row>
-    <row r="112" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I112" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J112" s="24"/>
-      <c r="Q112" s="24"/>
-    </row>
-    <row r="113" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="37" t="s">
-        <v>296</v>
-      </c>
+      <c r="C111" s="18">
+        <v>50</v>
+      </c>
+      <c r="D111" s="18">
+        <v>59</v>
+      </c>
+      <c r="E111" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="J111" s="18">
+        <v>50</v>
+      </c>
+      <c r="K111" s="18">
+        <v>59</v>
+      </c>
+      <c r="L111" s="18">
+        <v>40</v>
+      </c>
+      <c r="M111" s="18">
+        <v>13</v>
+      </c>
+      <c r="N111" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="O111" s="18">
+        <v>327</v>
+      </c>
+      <c r="P111" s="24">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="23"/>
+      <c r="C112" s="18">
+        <v>60</v>
+      </c>
+      <c r="D112" s="18">
+        <v>69</v>
+      </c>
+      <c r="E112" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="J112" s="18">
+        <v>60</v>
+      </c>
+      <c r="K112" s="18">
+        <v>69</v>
+      </c>
+      <c r="L112" s="18">
+        <v>56</v>
+      </c>
+      <c r="M112" s="18">
+        <v>28</v>
+      </c>
+      <c r="N112" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="O112" s="18">
+        <v>300</v>
+      </c>
+      <c r="P112" s="24">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="23"/>
-      <c r="C113" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D113" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E113" s="48" t="str">
-        <f>M114</f>
-        <v>Male</v>
-      </c>
-      <c r="J113" s="24"/>
-      <c r="M113" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="N113" s="62"/>
-      <c r="Q113" s="24"/>
-    </row>
-    <row r="114" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="18">
+        <v>70</v>
+      </c>
+      <c r="D113" s="18">
+        <v>79</v>
+      </c>
+      <c r="E113" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="J113" s="18">
+        <v>70</v>
+      </c>
+      <c r="K113" s="18">
+        <v>79</v>
+      </c>
+      <c r="L113" s="18">
+        <v>91</v>
+      </c>
+      <c r="M113" s="18">
+        <v>54</v>
+      </c>
+      <c r="N113" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O113" s="18">
+        <v>254</v>
+      </c>
+      <c r="P113" s="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="23"/>
       <c r="C114" s="18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D114" s="18">
-        <v>9</v>
-      </c>
-      <c r="E114" s="29">
-        <f t="shared" ref="E114:E122" si="2">M115</f>
-        <v>1</v>
-      </c>
-      <c r="J114" s="24"/>
-      <c r="K114" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M114" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N114" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q114" s="24"/>
-    </row>
-    <row r="115" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E114" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="J114" s="18">
+        <v>80</v>
+      </c>
+      <c r="K114" s="18">
+        <v>89</v>
+      </c>
+      <c r="L114" s="18">
+        <v>94</v>
+      </c>
+      <c r="M114" s="18">
+        <v>76</v>
+      </c>
+      <c r="N114" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O114" s="18">
+        <v>155</v>
+      </c>
+      <c r="P114" s="24">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="23"/>
       <c r="C115" s="18">
+        <v>90</v>
+      </c>
+      <c r="D115" s="18">
+        <v>100</v>
+      </c>
+      <c r="E115" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="J115" s="18">
+        <v>90</v>
+      </c>
+      <c r="K115" s="18">
+        <v>100</v>
+      </c>
+      <c r="L115" s="18">
+        <v>28</v>
+      </c>
+      <c r="M115" s="18">
+        <v>39</v>
+      </c>
+      <c r="N115" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="O115" s="18">
+        <v>44</v>
+      </c>
+      <c r="P115" s="24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="23"/>
+      <c r="C116" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="F116" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="G116" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="P116" s="24"/>
+    </row>
+    <row r="117" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="23"/>
+      <c r="P117" s="24"/>
+    </row>
+    <row r="118" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P118" s="24"/>
+    </row>
+    <row r="119" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E119" s="47" t="str">
+        <f>L120</f>
+        <v>Male</v>
+      </c>
+      <c r="L119" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M119" s="62"/>
+      <c r="P119" s="24"/>
+    </row>
+    <row r="120" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="23"/>
+      <c r="C120" s="18">
+        <v>0</v>
+      </c>
+      <c r="D120" s="18">
+        <v>9</v>
+      </c>
+      <c r="E120" s="29">
+        <f t="shared" ref="E120:E128" si="2">L121</f>
+        <v>1</v>
+      </c>
+      <c r="J120" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M120" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P120" s="24"/>
+    </row>
+    <row r="121" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="23"/>
+      <c r="C121" s="18">
         <v>10</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D121" s="18">
         <v>19</v>
       </c>
-      <c r="E115" s="29">
+      <c r="E121" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J115" s="24"/>
-      <c r="K115" s="18">
-        <v>0</v>
-      </c>
-      <c r="L115" s="18">
+      <c r="J121" s="18">
+        <v>0</v>
+      </c>
+      <c r="K121" s="18">
         <v>9</v>
       </c>
-      <c r="M115" s="29">
-        <f>1-M100/P100</f>
+      <c r="L121" s="29">
+        <f>1-L106/O106</f>
         <v>1</v>
       </c>
-      <c r="N115" s="29">
-        <f>1-N100/Q100</f>
+      <c r="M121" s="29">
+        <f>1-M106/P106</f>
         <v>1</v>
       </c>
-      <c r="Q115" s="24"/>
-    </row>
-    <row r="116" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="23"/>
-      <c r="C116" s="18">
+      <c r="P121" s="24"/>
+    </row>
+    <row r="122" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="23"/>
+      <c r="C122" s="18">
         <v>20</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D122" s="18">
         <v>29</v>
       </c>
-      <c r="E116" s="29">
+      <c r="E122" s="29">
         <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="J116" s="24"/>
-      <c r="K116" s="18">
+      <c r="J122" s="18">
         <v>10</v>
       </c>
-      <c r="L116" s="18">
+      <c r="K122" s="18">
         <v>19</v>
       </c>
-      <c r="M116" s="29">
-        <f t="shared" ref="M116:N116" si="3">1-M101/P101</f>
+      <c r="L122" s="29">
+        <f t="shared" ref="L122:M122" si="3">1-L107/O107</f>
         <v>1</v>
       </c>
-      <c r="N116" s="29">
+      <c r="M122" s="29">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q116" s="24"/>
-    </row>
-    <row r="117" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="23"/>
-      <c r="C117" s="18">
+      <c r="P122" s="24"/>
+    </row>
+    <row r="123" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="23"/>
+      <c r="C123" s="18">
         <v>30</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D123" s="18">
         <v>39</v>
       </c>
-      <c r="E117" s="29">
+      <c r="E123" s="29">
         <f t="shared" si="2"/>
         <v>0.95384615384615379</v>
       </c>
-      <c r="J117" s="24"/>
-      <c r="K117" s="18">
+      <c r="J123" s="18">
         <v>20</v>
       </c>
-      <c r="L117" s="18">
+      <c r="K123" s="18">
         <v>29</v>
       </c>
-      <c r="M117" s="29">
-        <f t="shared" ref="M117:N117" si="4">1-M102/P102</f>
+      <c r="L123" s="29">
+        <f t="shared" ref="L123:M123" si="4">1-L108/O108</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="N117" s="29">
+      <c r="M123" s="29">
         <f t="shared" si="4"/>
         <v>0.98181818181818181</v>
       </c>
-      <c r="Q117" s="24"/>
-    </row>
-    <row r="118" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="23"/>
-      <c r="C118" s="18">
+      <c r="P123" s="24"/>
+    </row>
+    <row r="124" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="23"/>
+      <c r="C124" s="18">
         <v>40</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D124" s="18">
         <v>49</v>
       </c>
-      <c r="E118" s="29">
+      <c r="E124" s="29">
         <f t="shared" si="2"/>
         <v>0.91845493562231761</v>
       </c>
-      <c r="J118" s="24"/>
-      <c r="K118" s="18">
+      <c r="J124" s="18">
         <v>30</v>
       </c>
-      <c r="L118" s="18">
+      <c r="K124" s="18">
         <v>39</v>
       </c>
-      <c r="M118" s="29">
-        <f t="shared" ref="M118:N118" si="5">1-M103/P103</f>
+      <c r="L124" s="29">
+        <f t="shared" ref="L124:M124" si="5">1-L109/O109</f>
         <v>0.95384615384615379</v>
       </c>
-      <c r="N118" s="29">
+      <c r="M124" s="29">
         <f t="shared" si="5"/>
         <v>0.97530864197530864</v>
       </c>
-      <c r="Q118" s="24"/>
-    </row>
-    <row r="119" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="23"/>
-      <c r="C119" s="18">
+      <c r="P124" s="24"/>
+    </row>
+    <row r="125" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="23"/>
+      <c r="C125" s="18">
         <v>50</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D125" s="18">
         <v>59</v>
       </c>
-      <c r="E119" s="29">
+      <c r="E125" s="29">
         <f t="shared" si="2"/>
         <v>0.8776758409785933</v>
       </c>
-      <c r="J119" s="24"/>
-      <c r="K119" s="18">
+      <c r="J125" s="18">
         <v>40</v>
       </c>
-      <c r="L119" s="18">
+      <c r="K125" s="18">
         <v>49</v>
       </c>
-      <c r="M119" s="29">
-        <f t="shared" ref="M119:N119" si="6">1-M104/P104</f>
+      <c r="L125" s="29">
+        <f t="shared" ref="L125:M125" si="6">1-L110/O110</f>
         <v>0.91845493562231761</v>
       </c>
-      <c r="N119" s="29">
+      <c r="M125" s="29">
         <f t="shared" si="6"/>
         <v>0.97478991596638653</v>
       </c>
-      <c r="Q119" s="24"/>
-    </row>
-    <row r="120" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="23"/>
-      <c r="C120" s="18">
+      <c r="P125" s="24"/>
+    </row>
+    <row r="126" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="23"/>
+      <c r="C126" s="18">
         <v>60</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D126" s="18">
         <v>69</v>
       </c>
-      <c r="E120" s="29">
+      <c r="E126" s="29">
         <f t="shared" si="2"/>
         <v>0.81333333333333335</v>
       </c>
-      <c r="J120" s="24"/>
-      <c r="K120" s="18">
+      <c r="J126" s="18">
         <v>50</v>
       </c>
-      <c r="L120" s="18">
+      <c r="K126" s="18">
         <v>59</v>
       </c>
-      <c r="M120" s="29">
-        <f t="shared" ref="M120:N120" si="7">1-M105/P105</f>
+      <c r="L126" s="29">
+        <f t="shared" ref="L126:M126" si="7">1-L111/O111</f>
         <v>0.8776758409785933</v>
       </c>
-      <c r="N120" s="29">
+      <c r="M126" s="29">
         <f t="shared" si="7"/>
         <v>0.93085106382978722</v>
       </c>
-      <c r="Q120" s="24"/>
-    </row>
-    <row r="121" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="23"/>
-      <c r="C121" s="18">
+      <c r="P126" s="24"/>
+    </row>
+    <row r="127" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="23"/>
+      <c r="C127" s="18">
         <v>70</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D127" s="18">
         <v>79</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E127" s="29">
         <f t="shared" si="2"/>
         <v>0.6417322834645669</v>
       </c>
-      <c r="J121" s="24"/>
-      <c r="K121" s="18">
+      <c r="J127" s="18">
         <v>60</v>
       </c>
-      <c r="L121" s="18">
+      <c r="K127" s="18">
         <v>69</v>
       </c>
-      <c r="M121" s="29">
-        <f t="shared" ref="M121:N121" si="8">1-M106/P106</f>
+      <c r="L127" s="29">
+        <f t="shared" ref="L127:M127" si="8">1-L112/O112</f>
         <v>0.81333333333333335</v>
       </c>
-      <c r="N121" s="29">
+      <c r="M127" s="29">
         <f t="shared" si="8"/>
         <v>0.87982832618025753</v>
       </c>
-      <c r="Q121" s="24"/>
-    </row>
-    <row r="122" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="23"/>
-      <c r="C122" s="18">
+      <c r="P127" s="24"/>
+    </row>
+    <row r="128" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="23"/>
+      <c r="C128" s="18">
         <v>80</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D128" s="18">
         <v>89</v>
       </c>
-      <c r="E122" s="29">
+      <c r="E128" s="29">
         <f t="shared" si="2"/>
         <v>0.3935483870967742</v>
       </c>
-      <c r="J122" s="24"/>
-      <c r="K122" s="18">
+      <c r="J128" s="18">
         <v>70</v>
       </c>
-      <c r="L122" s="18">
+      <c r="K128" s="18">
         <v>79</v>
       </c>
-      <c r="M122" s="29">
-        <f t="shared" ref="M122:N122" si="9">1-M107/P107</f>
+      <c r="L128" s="29">
+        <f t="shared" ref="L128:M128" si="9">1-L113/O113</f>
         <v>0.6417322834645669</v>
       </c>
-      <c r="N122" s="29">
+      <c r="M128" s="29">
         <f t="shared" si="9"/>
         <v>0.72588832487309651</v>
       </c>
-      <c r="Q122" s="24"/>
-    </row>
-    <row r="123" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="23"/>
-      <c r="C123" s="18">
+      <c r="P128" s="24"/>
+    </row>
+    <row r="129" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="23"/>
+      <c r="C129" s="18">
         <v>90</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D129" s="18">
         <v>100</v>
       </c>
-      <c r="E123" s="29">
-        <f>M124</f>
+      <c r="E129" s="29">
+        <f>L130</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="J123" s="24"/>
-      <c r="K123" s="18">
+      <c r="J129" s="18">
         <v>80</v>
       </c>
-      <c r="L123" s="18">
+      <c r="K129" s="18">
         <v>89</v>
       </c>
-      <c r="M123" s="29">
-        <f t="shared" ref="M123:N123" si="10">1-M108/P108</f>
+      <c r="L129" s="29">
+        <f t="shared" ref="L129:M129" si="10">1-L114/O114</f>
         <v>0.3935483870967742</v>
       </c>
-      <c r="N123" s="29">
+      <c r="M129" s="29">
         <f t="shared" si="10"/>
         <v>0.51898734177215189</v>
       </c>
-      <c r="Q123" s="24"/>
-    </row>
-    <row r="124" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="23"/>
-      <c r="E124" s="29"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="18">
+      <c r="P129" s="24"/>
+    </row>
+    <row r="130" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="23"/>
+      <c r="E130" s="29"/>
+      <c r="J130" s="18">
         <v>90</v>
       </c>
-      <c r="L124" s="18">
+      <c r="K130" s="18">
         <v>100</v>
       </c>
-      <c r="M124" s="29">
-        <f>1-M109/P109</f>
+      <c r="L130" s="29">
+        <f>1-L115/O115</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="N124" s="29">
-        <f>1-N109/Q109</f>
+      <c r="M130" s="29">
+        <f>1-M115/P115</f>
         <v>0.5357142857142857</v>
       </c>
-      <c r="Q124" s="24"/>
-    </row>
-    <row r="125" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="23"/>
-      <c r="C125" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E125" s="30" t="str">
-        <f t="shared" ref="E125:E134" si="11">N114</f>
+      <c r="P130" s="24"/>
+    </row>
+    <row r="131" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="23"/>
+      <c r="C131" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131" s="30" t="str">
+        <f t="shared" ref="E131:E140" si="11">M120</f>
         <v>Female</v>
       </c>
-      <c r="H125" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J125" s="24"/>
-      <c r="Q125" s="24"/>
-    </row>
-    <row r="126" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="23"/>
-      <c r="C126" s="18">
-        <v>0</v>
-      </c>
-      <c r="D126" s="18">
+      <c r="H131" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I131" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P131" s="24"/>
+    </row>
+    <row r="132" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="23"/>
+      <c r="C132" s="18">
+        <v>0</v>
+      </c>
+      <c r="D132" s="18">
         <v>9</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E132" s="29">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J126" s="24"/>
-      <c r="Q126" s="24"/>
-    </row>
-    <row r="127" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="23"/>
-      <c r="C127" s="18">
+      <c r="P132" s="24"/>
+    </row>
+    <row r="133" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="23"/>
+      <c r="C133" s="18">
         <v>10</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D133" s="18">
         <v>19</v>
       </c>
-      <c r="E127" s="29">
+      <c r="E133" s="29">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J127" s="24"/>
-      <c r="Q127" s="24"/>
-    </row>
-    <row r="128" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="23"/>
-      <c r="C128" s="18">
+      <c r="P133" s="24"/>
+    </row>
+    <row r="134" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="23"/>
+      <c r="C134" s="18">
         <v>20</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D134" s="18">
         <v>29</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E134" s="29">
         <f t="shared" si="11"/>
         <v>0.98181818181818181</v>
       </c>
-      <c r="J128" s="24"/>
-      <c r="Q128" s="24"/>
-    </row>
-    <row r="129" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="23"/>
-      <c r="C129" s="18">
+      <c r="P134" s="24"/>
+    </row>
+    <row r="135" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="23"/>
+      <c r="C135" s="18">
         <v>30</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D135" s="18">
         <v>39</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E135" s="29">
         <f t="shared" si="11"/>
         <v>0.97530864197530864</v>
       </c>
-      <c r="J129" s="24"/>
-      <c r="Q129" s="24"/>
-    </row>
-    <row r="130" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="23"/>
-      <c r="C130" s="18">
+      <c r="P135" s="24"/>
+    </row>
+    <row r="136" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="23"/>
+      <c r="C136" s="18">
         <v>40</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D136" s="18">
         <v>49</v>
       </c>
-      <c r="E130" s="29">
+      <c r="E136" s="29">
         <f t="shared" si="11"/>
         <v>0.97478991596638653</v>
       </c>
-      <c r="J130" s="24"/>
-      <c r="Q130" s="24"/>
-    </row>
-    <row r="131" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="23"/>
-      <c r="C131" s="18">
+      <c r="P136" s="24"/>
+    </row>
+    <row r="137" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="23"/>
+      <c r="C137" s="18">
         <v>50</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D137" s="18">
         <v>59</v>
       </c>
-      <c r="E131" s="29">
+      <c r="E137" s="29">
         <f t="shared" si="11"/>
         <v>0.93085106382978722</v>
       </c>
-      <c r="J131" s="24"/>
-      <c r="Q131" s="24"/>
-    </row>
-    <row r="132" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="23"/>
-      <c r="C132" s="18">
+      <c r="P137" s="24"/>
+    </row>
+    <row r="138" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="23"/>
+      <c r="C138" s="18">
         <v>60</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D138" s="18">
         <v>69</v>
       </c>
-      <c r="E132" s="29">
+      <c r="E138" s="29">
         <f t="shared" si="11"/>
         <v>0.87982832618025753</v>
       </c>
-      <c r="J132" s="24"/>
-      <c r="Q132" s="24"/>
-    </row>
-    <row r="133" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="23"/>
-      <c r="C133" s="18">
+      <c r="P138" s="24"/>
+    </row>
+    <row r="139" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="23"/>
+      <c r="C139" s="18">
         <v>70</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D139" s="18">
         <v>79</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E139" s="29">
         <f t="shared" si="11"/>
         <v>0.72588832487309651</v>
       </c>
-      <c r="J133" s="24"/>
-      <c r="Q133" s="24"/>
-    </row>
-    <row r="134" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="23"/>
-      <c r="C134" s="18">
+      <c r="P139" s="24"/>
+    </row>
+    <row r="140" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="23"/>
+      <c r="C140" s="18">
         <v>80</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D140" s="18">
         <v>89</v>
       </c>
-      <c r="E134" s="29">
+      <c r="E140" s="29">
         <f t="shared" si="11"/>
         <v>0.51898734177215189</v>
       </c>
-      <c r="J134" s="24"/>
-      <c r="Q134" s="24"/>
-    </row>
-    <row r="135" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="23"/>
-      <c r="C135" s="18">
-        <v>90</v>
-      </c>
-      <c r="D135" s="18">
-        <v>100</v>
-      </c>
-      <c r="E135" s="29">
-        <f t="shared" ref="E135" si="12">N124</f>
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="J135" s="24"/>
-      <c r="Q135" s="24"/>
-    </row>
-    <row r="136" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="23"/>
-      <c r="E136" s="29"/>
-      <c r="J136" s="24"/>
-      <c r="Q136" s="24"/>
-    </row>
-    <row r="137" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I137" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J137" s="24"/>
-      <c r="Q137" s="24"/>
-    </row>
-    <row r="138" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E138" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J138" s="24"/>
-      <c r="Q138" s="24"/>
-    </row>
-    <row r="139" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="23"/>
-      <c r="C139" s="18">
-        <v>0</v>
-      </c>
-      <c r="D139" s="18">
-        <v>9</v>
-      </c>
-      <c r="E139" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J139" s="24"/>
-      <c r="Q139" s="24"/>
-    </row>
-    <row r="140" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="23"/>
-      <c r="C140" s="18">
-        <v>10</v>
-      </c>
-      <c r="D140" s="18">
-        <v>19</v>
-      </c>
-      <c r="E140" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J140" s="24"/>
-      <c r="Q140" s="24"/>
-    </row>
-    <row r="141" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P140" s="24"/>
+    </row>
+    <row r="141" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="23"/>
       <c r="C141" s="18">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D141" s="18">
-        <v>29</v>
-      </c>
-      <c r="E141" s="18">
-        <v>4</v>
-      </c>
-      <c r="J141" s="24"/>
-      <c r="Q141" s="24"/>
-    </row>
-    <row r="142" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E141" s="29">
+        <f t="shared" ref="E141" si="12">M130</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="P141" s="24"/>
+    </row>
+    <row r="142" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="23"/>
-      <c r="C142" s="18">
-        <v>30</v>
-      </c>
-      <c r="D142" s="18">
-        <v>39</v>
-      </c>
-      <c r="E142" s="18">
-        <v>2.8</v>
-      </c>
-      <c r="J142" s="24"/>
-      <c r="Q142" s="24"/>
-    </row>
-    <row r="143" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="23"/>
-      <c r="C143" s="18">
-        <v>40</v>
-      </c>
-      <c r="D143" s="18">
-        <v>49</v>
-      </c>
-      <c r="E143" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="J143" s="24"/>
-      <c r="Q143" s="24"/>
-    </row>
-    <row r="144" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="29"/>
+      <c r="P142" s="24"/>
+    </row>
+    <row r="143" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P143" s="24"/>
+    </row>
+    <row r="144" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="37" t="s">
+        <v>266</v>
+      </c>
       <c r="B144" s="23"/>
-      <c r="C144" s="18">
-        <v>50</v>
-      </c>
-      <c r="D144" s="18">
-        <v>59</v>
-      </c>
-      <c r="E144" s="18">
-        <v>5.9</v>
-      </c>
-      <c r="J144" s="24"/>
-      <c r="Q144" s="24"/>
-    </row>
-    <row r="145" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P144" s="24"/>
+    </row>
+    <row r="145" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="23"/>
       <c r="C145" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D145" s="18">
-        <v>69</v>
-      </c>
-      <c r="E145" s="18">
-        <v>5.7</v>
-      </c>
-      <c r="J145" s="24"/>
-      <c r="Q145" s="24"/>
-    </row>
-    <row r="146" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P145" s="24"/>
+    </row>
+    <row r="146" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="23"/>
       <c r="C146" s="18">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D146" s="18">
-        <v>79</v>
-      </c>
-      <c r="E146" s="18">
-        <v>5</v>
-      </c>
-      <c r="J146" s="24"/>
-      <c r="Q146" s="24"/>
-    </row>
-    <row r="147" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P146" s="24"/>
+    </row>
+    <row r="147" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="23"/>
       <c r="C147" s="18">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D147" s="18">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E147" s="18">
-        <v>3.9</v>
-      </c>
-      <c r="J147" s="24"/>
-      <c r="Q147" s="24"/>
-    </row>
-    <row r="148" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P147" s="24"/>
+    </row>
+    <row r="148" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="23"/>
       <c r="C148" s="18">
+        <v>30</v>
+      </c>
+      <c r="D148" s="18">
+        <v>39</v>
+      </c>
+      <c r="E148" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="P148" s="24"/>
+    </row>
+    <row r="149" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="23"/>
+      <c r="C149" s="18">
+        <v>40</v>
+      </c>
+      <c r="D149" s="18">
+        <v>49</v>
+      </c>
+      <c r="E149" s="18">
+        <v>5.6</v>
+      </c>
+      <c r="P149" s="24"/>
+    </row>
+    <row r="150" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="23"/>
+      <c r="C150" s="18">
+        <v>50</v>
+      </c>
+      <c r="D150" s="18">
+        <v>59</v>
+      </c>
+      <c r="E150" s="18">
+        <v>5.9</v>
+      </c>
+      <c r="P150" s="24"/>
+    </row>
+    <row r="151" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="23"/>
+      <c r="C151" s="18">
+        <v>60</v>
+      </c>
+      <c r="D151" s="18">
+        <v>69</v>
+      </c>
+      <c r="E151" s="18">
+        <v>5.7</v>
+      </c>
+      <c r="P151" s="24"/>
+    </row>
+    <row r="152" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="23"/>
+      <c r="C152" s="18">
+        <v>70</v>
+      </c>
+      <c r="D152" s="18">
+        <v>79</v>
+      </c>
+      <c r="E152" s="18">
+        <v>5</v>
+      </c>
+      <c r="P152" s="24"/>
+    </row>
+    <row r="153" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="23"/>
+      <c r="C153" s="18">
+        <v>80</v>
+      </c>
+      <c r="D153" s="18">
+        <v>89</v>
+      </c>
+      <c r="E153" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="P153" s="24"/>
+    </row>
+    <row r="154" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="23"/>
+      <c r="C154" s="18">
         <v>90</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D154" s="18">
         <v>100</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E154" s="18">
         <v>3</v>
       </c>
-      <c r="J148" s="24"/>
-      <c r="Q148" s="24"/>
-    </row>
-    <row r="149" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="23"/>
-      <c r="C149" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E149" s="18">
+      <c r="P154" s="24"/>
+    </row>
+    <row r="155" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="23"/>
+      <c r="C155" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E155" s="18">
         <v>4.8</v>
       </c>
-      <c r="F149" s="18">
+      <c r="F155" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G149" s="18">
+      <c r="G155" s="18">
         <v>7.4</v>
       </c>
-      <c r="J149" s="24"/>
-      <c r="Q149" s="24"/>
-    </row>
-    <row r="150" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="23"/>
-      <c r="J150" s="24"/>
-      <c r="Q150" s="24"/>
-    </row>
-    <row r="151" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C151" s="18" t="s">
+      <c r="P155" s="24"/>
+    </row>
+    <row r="156" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="23"/>
+      <c r="P156" s="24"/>
+    </row>
+    <row r="157" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C157" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E151" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H151" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I151" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J151" s="24" t="s">
+      <c r="E157" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H157" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P157" s="24"/>
+    </row>
+    <row r="158" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B158" s="23"/>
+      <c r="P158" s="24"/>
+    </row>
+    <row r="159" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="23"/>
+      <c r="P159" s="24"/>
+    </row>
+    <row r="160" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="P160" s="24"/>
+    </row>
+    <row r="161" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="Q151" s="24"/>
-    </row>
-    <row r="152" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" s="23"/>
-      <c r="J152" s="24"/>
-      <c r="Q152" s="24"/>
-    </row>
-    <row r="153" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="23"/>
-      <c r="J153" s="24"/>
-      <c r="Q153" s="24"/>
-    </row>
-    <row r="154" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="J154" s="24"/>
-      <c r="Q154" s="24"/>
-    </row>
-    <row r="155" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C155" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="D155" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="E155" s="64"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="J155" s="47"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
-      <c r="P155" s="31"/>
-      <c r="Q155" s="47"/>
+      <c r="C161" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D161" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E161" s="64"/>
+      <c r="F161" s="64"/>
+      <c r="G161" s="64"/>
+      <c r="H161" s="64"/>
+      <c r="I161" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J161" s="31"/>
+      <c r="K161" s="31"/>
+      <c r="L161" s="31"/>
+      <c r="M161" s="31"/>
+      <c r="N161" s="31"/>
+      <c r="O161" s="31"/>
+      <c r="P161" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="D161:H161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5186,34 +5039,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5543,10 +5396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06EAA-DD57-CD41-99C7-E054165F9535}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5554,228 +5407,132 @@
     <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="49">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="50">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B9" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="50">
-        <v>2.82</v>
-      </c>
-      <c r="C2" s="50">
-        <v>2</v>
-      </c>
-      <c r="D2" s="51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="50">
-        <v>0</v>
-      </c>
-      <c r="C3" s="50">
-        <v>0</v>
-      </c>
-      <c r="D3" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="50">
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <v>0</v>
-      </c>
-      <c r="D4" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="50">
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="50">
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="52">
-        <v>2.52</v>
-      </c>
-      <c r="C7" s="52">
-        <v>0</v>
-      </c>
-      <c r="D7" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="52">
-        <v>0</v>
-      </c>
-      <c r="D8" s="52">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="50">
-        <v>0</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0</v>
-      </c>
-      <c r="D9" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="50">
-        <v>0</v>
-      </c>
-      <c r="C10" s="50">
-        <v>0</v>
-      </c>
-      <c r="D10" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="50">
-        <v>0</v>
-      </c>
-      <c r="C11" s="50">
-        <v>0</v>
-      </c>
-      <c r="D11" s="50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>143</v>
+      <c r="B10" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="B12" s="18">
         <v>5.4</v>
       </c>
-      <c r="C12" s="52">
-        <v>3.8</v>
-      </c>
-      <c r="D12" s="52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>137</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>128</v>
       </c>
       <c r="B13" s="18">
         <v>7</v>
       </c>
-      <c r="C13" s="18">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="50">
         <v>3.5</v>
       </c>
-      <c r="D13" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="52">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="50">
         <v>3.5</v>
       </c>
-      <c r="C14" s="52">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="C15" s="52">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>305</v>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="B16" s="18">
         <v>11.2</v>
-      </c>
-      <c r="C16" s="52">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5799,13 +5556,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5920,22 +5677,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6155,18 +5912,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B2" s="15">
         <v>43926</v>
@@ -6177,7 +5934,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B3" s="15">
         <v>43919</v>
@@ -6188,7 +5945,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B4" s="15">
         <v>43922</v>
@@ -6199,29 +5956,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B6" s="15">
         <v>43909</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B7" s="15">
         <v>43916</v>
@@ -6232,7 +5989,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B8" s="15">
         <v>43914</v>
@@ -6243,7 +6000,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B9" s="15">
         <v>43914</v>
@@ -6254,7 +6011,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B10" s="15">
         <v>43922</v>
@@ -6265,7 +6022,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B11" s="15">
         <v>43924</v>
@@ -6276,7 +6033,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B12" s="15">
         <v>43925</v>
@@ -6287,7 +6044,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B13" s="15">
         <v>43915</v>
@@ -6298,7 +6055,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B14" s="15">
         <v>43915</v>
@@ -6309,7 +6066,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B15" s="15">
         <v>43912</v>
@@ -6320,7 +6077,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B16" s="15">
         <v>43915</v>
@@ -6331,18 +6088,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B18" s="15">
         <v>43920</v>
@@ -6353,18 +6110,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B19" s="15">
         <v>43917</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B20" s="15">
         <v>43914</v>
@@ -6375,7 +6132,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B21" s="15">
         <v>43923</v>
@@ -6386,18 +6143,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B22" s="15">
         <v>43921</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B23" s="15">
         <v>43914</v>
@@ -6408,7 +6165,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B24" s="15">
         <v>43914</v>
@@ -6419,7 +6176,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B25" s="15">
         <v>43918</v>
@@ -6430,7 +6187,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B26" s="15">
         <v>43925</v>
@@ -6441,7 +6198,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B27" s="15">
         <v>43927</v>
@@ -6452,7 +6209,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B28" s="15">
         <v>43918</v>
@@ -6463,18 +6220,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B30" s="15">
         <v>43922</v>
@@ -6485,7 +6242,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B31" s="15">
         <v>43918</v>
@@ -6496,29 +6253,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B32" s="15">
         <v>43912</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B33" s="15">
         <v>43913</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B34" s="15">
         <v>43912</v>
@@ -6529,7 +6286,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B35" s="15">
         <v>43921</v>
@@ -6540,18 +6297,18 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B37" s="15">
         <v>43914</v>
@@ -6562,7 +6319,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B38" s="15">
         <v>43914</v>
@@ -6573,18 +6330,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B39" s="15">
         <v>43913</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B40" s="15">
         <v>43905</v>
@@ -6595,7 +6352,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B41" s="15">
         <v>43923</v>
@@ -6606,7 +6363,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B42" s="15">
         <v>43918</v>
@@ -6617,29 +6374,29 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B43" s="15">
         <v>43929</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B45" s="15">
         <v>43922</v>
@@ -6650,7 +6407,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B46" s="15">
         <v>43923</v>
@@ -6661,18 +6418,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B48" s="15">
         <v>43916</v>
@@ -6683,7 +6440,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B49" s="15">
         <v>43920</v>
@@ -6694,7 +6451,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B50" s="15">
         <v>43913</v>
@@ -6705,18 +6462,18 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B51" s="15">
         <v>43915</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B52" s="15">
         <v>43915</v>
@@ -6727,13 +6484,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6743,10 +6500,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C531592-1077-9942-9A90-D21B632320FA}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6756,58 +6513,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6815,111 +6572,127 @@
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>304</v>
+        <v>271</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID_input_parameters.xlsx
+++ b/data/COVID_input_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatapudi/Desktop/COVID/SIMULATION/GITHUB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-dml/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC5B1A-4C1C-4A47-A94D-1CD64C52009A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B605C-0795-4F4A-8C08-2A5E7DAF7A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1480" windowWidth="27980" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="12" r:id="rId1"/>
@@ -1257,9 +1257,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1344,12 +1351,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1443,9 +1456,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1456,20 +1469,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,13 +1491,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,13 +1506,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,19 +1521,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,13 +1557,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,7 +1572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1571,49 +1584,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1931,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4CBC7-CE33-6342-AFB5-46B0BE50F271}">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2097,9 +2119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3527,6 +3549,7 @@
         <v>261</v>
       </c>
       <c r="B93" s="23"/>
+      <c r="E93" s="69"/>
       <c r="H93" s="18" t="s">
         <v>288</v>
       </c>
@@ -3572,7 +3595,7 @@
         <v>0.01</v>
       </c>
       <c r="L94" s="41">
-        <f t="shared" ref="L94:L100" si="1">K94*$K$101</f>
+        <f>K94*$K$101</f>
         <v>5.08</v>
       </c>
       <c r="M94" s="18" t="s">
@@ -3605,7 +3628,7 @@
         <v>0.2</v>
       </c>
       <c r="L95" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L94:L100" si="1">K95*$K$101</f>
         <v>101.60000000000001</v>
       </c>
       <c r="M95" s="18" t="s">
@@ -3858,15 +3881,15 @@
         <v>167</v>
       </c>
       <c r="K104" s="17"/>
-      <c r="L104" s="62" t="s">
+      <c r="L104" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="M104" s="62"/>
+      <c r="M104" s="63"/>
       <c r="N104" s="17"/>
-      <c r="O104" s="62" t="s">
+      <c r="O104" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="P104" s="63"/>
+      <c r="P104" s="64"/>
     </row>
     <row r="105" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37" t="s">
@@ -4297,10 +4320,10 @@
         <f>L120</f>
         <v>Male</v>
       </c>
-      <c r="L119" s="62" t="s">
+      <c r="L119" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="M119" s="62"/>
+      <c r="M119" s="63"/>
       <c r="P119" s="24"/>
     </row>
     <row r="120" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4997,13 +5020,13 @@
       <c r="C161" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="64" t="s">
+      <c r="D161" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
+      <c r="H161" s="65"/>
       <c r="I161" s="31" t="s">
         <v>271</v>
       </c>
@@ -5399,7 +5422,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5456,7 +5479,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="67" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="50">
@@ -5464,7 +5487,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="67" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="50">
@@ -5488,7 +5511,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="67" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="49">
@@ -5496,7 +5519,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="67" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="18">
@@ -5504,7 +5527,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="67" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="18">
@@ -5512,7 +5535,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="67" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="50">
@@ -5520,7 +5543,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="50">
@@ -5545,7 +5568,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5561,7 +5584,7 @@
       <c r="B1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="68" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5572,7 +5595,7 @@
       <c r="B2">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="68">
         <v>4.1300813008130079E-2</v>
       </c>
       <c r="D2" s="14"/>
@@ -5586,7 +5609,7 @@
       <c r="B3">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="68">
         <v>0.14411347517730497</v>
       </c>
       <c r="D3" s="14"/>
@@ -5599,7 +5622,7 @@
       <c r="B4">
         <v>54</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="68">
         <v>0.21314685314685314</v>
       </c>
       <c r="D4" s="14"/>
@@ -5612,7 +5635,7 @@
       <c r="B5">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="68">
         <v>0.20130536130536131</v>
       </c>
       <c r="D5" s="14"/>
@@ -5625,7 +5648,7 @@
       <c r="B6">
         <v>74</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="68">
         <v>0.22356968215158923</v>
       </c>
       <c r="D6" s="14"/>
@@ -5638,7 +5661,7 @@
       <c r="B7">
         <v>84</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="68">
         <v>0.43542857142857144</v>
       </c>
       <c r="D7" s="14"/>
@@ -5651,7 +5674,7 @@
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="68">
         <v>0.3175</v>
       </c>
     </row>
@@ -5662,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE539784-BE45-0345-97F0-C9ABCF921BE4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5682,16 +5705,16 @@
       <c r="B1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5708,10 +5731,10 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5728,10 +5751,10 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>1.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>1.8</v>
       </c>
     </row>
@@ -5748,10 +5771,10 @@
       <c r="D4">
         <v>7.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>2.5</v>
       </c>
     </row>
@@ -5768,10 +5791,10 @@
       <c r="D5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>2.8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>3.7</v>
       </c>
     </row>
@@ -5788,10 +5811,10 @@
       <c r="D6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>5.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>3.9</v>
       </c>
     </row>
@@ -5808,10 +5831,10 @@
       <c r="D7">
         <v>12.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>5.9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>3.8</v>
       </c>
     </row>
@@ -5828,10 +5851,10 @@
       <c r="D8">
         <v>18.7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>5.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>4.3</v>
       </c>
     </row>
@@ -5848,10 +5871,10 @@
       <c r="D9">
         <v>35.799999999999997</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -5868,10 +5891,10 @@
       <c r="D10">
         <v>60.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>3.9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -5888,12 +5911,16 @@
       <c r="D11">
         <v>63.6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>4.8</v>
       </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6502,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C531592-1077-9942-9A90-D21B632320FA}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6515,7 +6542,7 @@
       <c r="A1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="66" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6659,7 +6686,7 @@
       <c r="A19" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="70" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6691,7 +6718,7 @@
       <c r="A23" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="62" t="s">
         <v>302</v>
       </c>
     </row>
